--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/GEORGIA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/GEORGIA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1596"/>
+  <dimension ref="A1:D1590"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -420,7 +420,7 @@
         <v>25</v>
       </c>
       <c r="D4">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="5">
@@ -452,7 +452,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C7">
@@ -465,7 +465,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C8">
@@ -535,7 +535,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>Playas de Rosarito</t>
+          <t>Playas De Rosarito</t>
         </is>
       </c>
       <c r="C13">
@@ -810,7 +810,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C33">
@@ -823,7 +823,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C34">
@@ -862,7 +862,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C37">
@@ -888,7 +888,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C39">
@@ -992,7 +992,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C47">
@@ -1044,7 +1044,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C51">
@@ -1369,7 +1369,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C76">
@@ -1434,7 +1434,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C81">
@@ -1538,7 +1538,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C89">
@@ -1714,7 +1714,7 @@
         <v>25</v>
       </c>
       <c r="D102">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="103">
@@ -1766,7 +1766,7 @@
         <v>25</v>
       </c>
       <c r="D106">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="107">
@@ -1959,7 +1959,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C121">
@@ -1998,7 +1998,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C124">
@@ -2089,7 +2089,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>San Francisco del Oro</t>
+          <t>San Francisco Del Oro</t>
         </is>
       </c>
       <c r="C131">
@@ -2341,7 +2341,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C150">
@@ -2502,7 +2502,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C162">
@@ -2528,7 +2528,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -2585,7 +2585,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Cuajimalpa de Morelos</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C168">
@@ -2605,7 +2605,7 @@
         <v>253</v>
       </c>
       <c r="D169">
-        <v>0.009740134744947065</v>
+        <v>0.009740134744947063</v>
       </c>
     </row>
     <row r="170">
@@ -2772,7 +2772,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Coneto de Comonfort</t>
+          <t>Coneto De Comonfort</t>
         </is>
       </c>
       <c r="C182">
@@ -2954,7 +2954,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C196">
@@ -3006,7 +3006,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C200">
@@ -3071,7 +3071,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C205">
@@ -3084,7 +3084,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C206">
@@ -3097,7 +3097,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>San Luis del Cordero</t>
+          <t>San Luis Del Cordero</t>
         </is>
       </c>
       <c r="C207">
@@ -3110,7 +3110,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>San Pedro del Gallo</t>
+          <t>San Pedro Del Gallo</t>
         </is>
       </c>
       <c r="C208">
@@ -3227,12 +3227,12 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C217">
@@ -3271,7 +3271,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C220">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C221">
@@ -3297,7 +3297,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>Almoloya del Río</t>
+          <t>Almoloya Del Río</t>
         </is>
       </c>
       <c r="C222">
@@ -3362,7 +3362,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C227">
@@ -3427,7 +3427,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C232">
@@ -3473,13 +3473,13 @@
         <v>25</v>
       </c>
       <c r="D235">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C236">
@@ -3557,7 +3557,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C242">
@@ -3635,7 +3635,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Ixtapan de la Sal</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C248">
@@ -3648,7 +3648,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>Ixtapan del Oro</t>
+          <t>Ixtapan Del Oro</t>
         </is>
       </c>
       <c r="C249">
@@ -3843,7 +3843,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C264">
@@ -3986,7 +3986,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C275">
@@ -4012,7 +4012,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C277">
@@ -4038,7 +4038,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C279">
@@ -4155,7 +4155,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C288">
@@ -4285,7 +4285,7 @@
     <row r="298">
       <c r="B298" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C298">
@@ -4363,7 +4363,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C304">
@@ -4376,7 +4376,7 @@
     <row r="305">
       <c r="B305" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C305">
@@ -4389,7 +4389,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C306">
@@ -4402,7 +4402,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C307">
@@ -4563,7 +4563,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C319">
@@ -4576,7 +4576,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C320">
@@ -4589,7 +4589,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C321">
@@ -4693,7 +4693,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C329">
@@ -4745,7 +4745,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C333">
@@ -4849,7 +4849,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C341">
@@ -4901,7 +4901,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C345">
@@ -4927,7 +4927,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C347">
@@ -4953,7 +4953,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C349">
@@ -4979,7 +4979,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C351">
@@ -5005,7 +5005,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C353">
@@ -5070,7 +5070,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C358">
@@ -5153,7 +5153,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C364">
@@ -5192,7 +5192,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C367">
@@ -5205,7 +5205,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C368">
@@ -5244,7 +5244,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C371">
@@ -5270,7 +5270,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C373">
@@ -5283,7 +5283,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C374">
@@ -5322,7 +5322,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C377">
@@ -5335,7 +5335,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C378">
@@ -5348,7 +5348,7 @@
     <row r="379">
       <c r="B379" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C379">
@@ -5361,7 +5361,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C380">
@@ -5426,7 +5426,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C385">
@@ -5439,7 +5439,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C386">
@@ -5491,7 +5491,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Cuetzala del Progreso</t>
+          <t>Cuetzala Del Progreso</t>
         </is>
       </c>
       <c r="C390">
@@ -5504,7 +5504,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C391">
@@ -5582,7 +5582,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C397">
@@ -5595,7 +5595,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C398">
@@ -5621,7 +5621,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C400">
@@ -5634,7 +5634,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C401">
@@ -5660,7 +5660,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C403">
@@ -5699,7 +5699,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C406">
@@ -5855,7 +5855,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C418">
@@ -5881,7 +5881,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C420">
@@ -5907,7 +5907,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C422">
@@ -5933,7 +5933,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C424">
@@ -5985,7 +5985,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>Tlalixtaquilla de Maldonado</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C428">
@@ -5998,7 +5998,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C429">
@@ -6159,7 +6159,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C441">
@@ -6224,7 +6224,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C446">
@@ -6302,7 +6302,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C452">
@@ -6380,7 +6380,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C458">
@@ -6432,7 +6432,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C462">
@@ -6471,7 +6471,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C465">
@@ -6562,7 +6562,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C472">
@@ -6575,7 +6575,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C473">
@@ -6588,7 +6588,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>Mixquiahuala de Juárez</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C474">
@@ -6601,7 +6601,7 @@
     <row r="475">
       <c r="B475" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C475">
@@ -6627,7 +6627,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C477">
@@ -6640,7 +6640,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C478">
@@ -6653,7 +6653,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C479">
@@ -6692,7 +6692,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C482">
@@ -6770,7 +6770,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C488">
@@ -6783,7 +6783,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C489">
@@ -6835,7 +6835,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C493">
@@ -6861,7 +6861,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C495">
@@ -6874,7 +6874,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C496">
@@ -6913,7 +6913,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C499">
@@ -7017,7 +7017,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C507">
@@ -7030,7 +7030,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C508">
@@ -7043,7 +7043,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>Villa de Tezontepec</t>
+          <t>Villa De Tezontepec</t>
         </is>
       </c>
       <c r="C509">
@@ -7095,7 +7095,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C513">
@@ -7108,7 +7108,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>Zapotlán de Juárez</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C514">
@@ -7178,7 +7178,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>Acatlán de Juárez</t>
+          <t>Acatlán De Juárez</t>
         </is>
       </c>
       <c r="C519">
@@ -7191,7 +7191,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C520">
@@ -7243,7 +7243,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>Atotonilco el Alto</t>
+          <t>Atotonilco El Alto</t>
         </is>
       </c>
       <c r="C524">
@@ -7269,7 +7269,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>Autlán de Navarro</t>
+          <t>Autlán De Navarro</t>
         </is>
       </c>
       <c r="C526">
@@ -7334,7 +7334,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>Cañadas de Obregón</t>
+          <t>Cañadas De Obregón</t>
         </is>
       </c>
       <c r="C531">
@@ -7399,7 +7399,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Cuautitlán de García Barragán</t>
+          <t>Cuautitlán De García Barragán</t>
         </is>
       </c>
       <c r="C536">
@@ -7477,7 +7477,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C542">
@@ -7555,7 +7555,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>Huejuquilla el Alto</t>
+          <t>Huejuquilla El Alto</t>
         </is>
       </c>
       <c r="C548">
@@ -7568,7 +7568,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>Ixtlahuacán de los Membrillos</t>
+          <t>Ixtlahuacán De Los Membrillos</t>
         </is>
       </c>
       <c r="C549">
@@ -7581,7 +7581,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C550">
@@ -7627,13 +7627,13 @@
         <v>25</v>
       </c>
       <c r="D553">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C554">
@@ -7672,7 +7672,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C557">
@@ -7763,7 +7763,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C564">
@@ -7828,7 +7828,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>San Cristóbal de la Barranca</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C569">
@@ -7841,7 +7841,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>San Diego de Alejandría</t>
+          <t>San Diego De Alejandría</t>
         </is>
       </c>
       <c r="C570">
@@ -7867,7 +7867,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C572">
@@ -7880,7 +7880,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>San Juanito de Escobedo</t>
+          <t>San Juanito De Escobedo</t>
         </is>
       </c>
       <c r="C573">
@@ -7893,7 +7893,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>San Martín de Bolaños</t>
+          <t>San Martín De Bolaños</t>
         </is>
       </c>
       <c r="C574">
@@ -7919,7 +7919,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C576">
@@ -7932,7 +7932,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>San Sebastián del Oeste</t>
+          <t>San Sebastián Del Oeste</t>
         </is>
       </c>
       <c r="C577">
@@ -7945,7 +7945,7 @@
     <row r="578">
       <c r="B578" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C578">
@@ -7984,7 +7984,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C581">
@@ -7997,7 +7997,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C582">
@@ -8036,7 +8036,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>Techaluta de Montenegro</t>
+          <t>Techaluta De Montenegro</t>
         </is>
       </c>
       <c r="C585">
@@ -8088,7 +8088,7 @@
     <row r="589">
       <c r="B589" t="inlineStr">
         <is>
-          <t>Teocuitatlán de Corona</t>
+          <t>Teocuitatlán De Corona</t>
         </is>
       </c>
       <c r="C589">
@@ -8101,7 +8101,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C590">
@@ -8140,7 +8140,7 @@
     <row r="593">
       <c r="B593" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C593">
@@ -8153,7 +8153,7 @@
     <row r="594">
       <c r="B594" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C594">
@@ -8244,7 +8244,7 @@
     <row r="601">
       <c r="B601" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C601">
@@ -8257,7 +8257,7 @@
     <row r="602">
       <c r="B602" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C602">
@@ -8270,7 +8270,7 @@
     <row r="603">
       <c r="B603" t="inlineStr">
         <is>
-          <t>Valle de Juárez</t>
+          <t>Valle De Juárez</t>
         </is>
       </c>
       <c r="C603">
@@ -8335,7 +8335,7 @@
     <row r="608">
       <c r="B608" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C608">
@@ -8348,7 +8348,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>Zacoalco de Torres</t>
+          <t>Zacoalco De Torres</t>
         </is>
       </c>
       <c r="C609">
@@ -8387,7 +8387,7 @@
     <row r="612">
       <c r="B612" t="inlineStr">
         <is>
-          <t>Zapotlán del Rey</t>
+          <t>Zapotlán Del Rey</t>
         </is>
       </c>
       <c r="C612">
@@ -8400,7 +8400,7 @@
     <row r="613">
       <c r="B613" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C613">
@@ -9192,7 +9192,7 @@
         <v>25</v>
       </c>
       <c r="D673">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="674">
@@ -9426,7 +9426,7 @@
         <v>25</v>
       </c>
       <c r="D691">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="692">
@@ -9510,7 +9510,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C698">
@@ -9569,7 +9569,7 @@
         <v>25</v>
       </c>
       <c r="D702">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="703">
@@ -9840,7 +9840,7 @@
     <row r="723">
       <c r="B723" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C723">
@@ -9944,7 +9944,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C731">
@@ -9996,7 +9996,7 @@
     <row r="735">
       <c r="B735" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C735">
@@ -10061,7 +10061,7 @@
     <row r="740">
       <c r="B740" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C740">
@@ -10087,7 +10087,7 @@
     <row r="742">
       <c r="B742" t="inlineStr">
         <is>
-          <t>Tlaltizapán de Zapata</t>
+          <t>Tlaltizapán De Zapata</t>
         </is>
       </c>
       <c r="C742">
@@ -10191,7 +10191,7 @@
     <row r="750">
       <c r="B750" t="inlineStr">
         <is>
-          <t>Zacualpan de Amilpas</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C750">
@@ -10235,7 +10235,7 @@
     <row r="753">
       <c r="B753" t="inlineStr">
         <is>
-          <t>Amatlán de Cañas</t>
+          <t>Amatlán De Cañas</t>
         </is>
       </c>
       <c r="C753">
@@ -10248,7 +10248,7 @@
     <row r="754">
       <c r="B754" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C754">
@@ -10287,7 +10287,7 @@
     <row r="757">
       <c r="B757" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C757">
@@ -10365,7 +10365,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C763">
@@ -10630,7 +10630,7 @@
     <row r="783">
       <c r="B783" t="inlineStr">
         <is>
-          <t>Mier y Noriega</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C783">
@@ -10721,7 +10721,7 @@
     <row r="790">
       <c r="B790" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C790">
@@ -10804,7 +10804,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C796">
@@ -10882,7 +10882,7 @@
     <row r="802">
       <c r="B802" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C802">
@@ -10921,7 +10921,7 @@
     <row r="805">
       <c r="B805" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C805">
@@ -10934,7 +10934,7 @@
     <row r="806">
       <c r="B806" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C806">
@@ -10960,7 +10960,7 @@
     <row r="808">
       <c r="B808" t="inlineStr">
         <is>
-          <t>Cuilápam de Guerrero</t>
+          <t>Cuilápam De Guerrero</t>
         </is>
       </c>
       <c r="C808">
@@ -10973,7 +10973,7 @@
     <row r="809">
       <c r="B809" t="inlineStr">
         <is>
-          <t>Eloxochitlán de Flores Magón</t>
+          <t>Eloxochitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C809">
@@ -10986,7 +10986,7 @@
     <row r="810">
       <c r="B810" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C810">
@@ -10999,7 +10999,7 @@
     <row r="811">
       <c r="B811" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C811">
@@ -11012,7 +11012,7 @@
     <row r="812">
       <c r="B812" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C812">
@@ -11025,7 +11025,7 @@
     <row r="813">
       <c r="B813" t="inlineStr">
         <is>
-          <t>Huautla de Jiménez</t>
+          <t>Huautla De Jiménez</t>
         </is>
       </c>
       <c r="C813">
@@ -11038,7 +11038,7 @@
     <row r="814">
       <c r="B814" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C814">
@@ -11051,7 +11051,7 @@
     <row r="815">
       <c r="B815" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C815">
@@ -11142,7 +11142,7 @@
     <row r="822">
       <c r="B822" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C822">
@@ -11181,7 +11181,7 @@
     <row r="825">
       <c r="B825" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C825">
@@ -11207,7 +11207,7 @@
     <row r="827">
       <c r="B827" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C827">
@@ -11220,7 +11220,7 @@
     <row r="828">
       <c r="B828" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C828">
@@ -11233,7 +11233,7 @@
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C829">
@@ -11246,7 +11246,7 @@
     <row r="830">
       <c r="B830" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C830">
@@ -11272,7 +11272,7 @@
     <row r="832">
       <c r="B832" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C832">
@@ -11285,7 +11285,7 @@
     <row r="833">
       <c r="B833" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C833">
@@ -11532,7 +11532,7 @@
     <row r="852">
       <c r="B852" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C852">
@@ -11545,7 +11545,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C853">
@@ -11688,7 +11688,7 @@
     <row r="864">
       <c r="B864" t="inlineStr">
         <is>
-          <t>San José del Progreso</t>
+          <t>San José Del Progreso</t>
         </is>
       </c>
       <c r="C864">
@@ -11792,7 +11792,7 @@
     <row r="872">
       <c r="B872" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C872">
@@ -12104,7 +12104,7 @@
     <row r="896">
       <c r="B896" t="inlineStr">
         <is>
-          <t>San Martín de los Cansecos</t>
+          <t>San Martín De Los Cansecos</t>
         </is>
       </c>
       <c r="C896">
@@ -12221,7 +12221,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C905">
@@ -12247,7 +12247,7 @@
     <row r="907">
       <c r="B907" t="inlineStr">
         <is>
-          <t>San Miguel el Grande</t>
+          <t>San Miguel El Grande</t>
         </is>
       </c>
       <c r="C907">
@@ -12364,7 +12364,7 @@
     <row r="916">
       <c r="B916" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C916">
@@ -12377,7 +12377,7 @@
     <row r="917">
       <c r="B917" t="inlineStr">
         <is>
-          <t>San Pedro el Alto</t>
+          <t>San Pedro El Alto</t>
         </is>
       </c>
       <c r="C917">
@@ -12715,7 +12715,7 @@
     <row r="943">
       <c r="B943" t="inlineStr">
         <is>
-          <t>Santa Ana del Valle</t>
+          <t>Santa Ana Del Valle</t>
         </is>
       </c>
       <c r="C943">
@@ -12819,7 +12819,7 @@
     <row r="951">
       <c r="B951" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C951">
@@ -12871,7 +12871,7 @@
     <row r="955">
       <c r="B955" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C955">
@@ -13014,7 +13014,7 @@
     <row r="966">
       <c r="B966" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C966">
@@ -13125,7 +13125,7 @@
         <v>25</v>
       </c>
       <c r="D974">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="975">
@@ -13521,7 +13521,7 @@
     <row r="1005">
       <c r="B1005" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C1005">
@@ -13651,7 +13651,7 @@
     <row r="1015">
       <c r="B1015" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C1015">
@@ -13677,7 +13677,7 @@
     <row r="1017">
       <c r="B1017" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C1017">
@@ -13690,7 +13690,7 @@
     <row r="1018">
       <c r="B1018" t="inlineStr">
         <is>
-          <t>Teotitlán del Valle</t>
+          <t>Teotitlán Del Valle</t>
         </is>
       </c>
       <c r="C1018">
@@ -13716,7 +13716,7 @@
     <row r="1020">
       <c r="B1020" t="inlineStr">
         <is>
-          <t>Tepelmeme Villa de Morelos</t>
+          <t>Tepelmeme Villa De Morelos</t>
         </is>
       </c>
       <c r="C1020">
@@ -13729,7 +13729,7 @@
     <row r="1021">
       <c r="B1021" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C1021">
@@ -13742,7 +13742,7 @@
     <row r="1022">
       <c r="B1022" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C1022">
@@ -13755,7 +13755,7 @@
     <row r="1023">
       <c r="B1023" t="inlineStr">
         <is>
-          <t>Totontepec Villa de Morelos</t>
+          <t>Totontepec Villa De Morelos</t>
         </is>
       </c>
       <c r="C1023">
@@ -13807,7 +13807,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Villa de Etla</t>
+          <t>Villa De Etla</t>
         </is>
       </c>
       <c r="C1027">
@@ -13820,7 +13820,7 @@
     <row r="1028">
       <c r="B1028" t="inlineStr">
         <is>
-          <t>Villa de Tamazulápam del Progreso</t>
+          <t>Villa De Tamazulápam Del Progreso</t>
         </is>
       </c>
       <c r="C1028">
@@ -13833,7 +13833,7 @@
     <row r="1029">
       <c r="B1029" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C1029">
@@ -13846,7 +13846,7 @@
     <row r="1030">
       <c r="B1030" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C1030">
@@ -13872,7 +13872,7 @@
     <row r="1032">
       <c r="B1032" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C1032">
@@ -13898,7 +13898,7 @@
     <row r="1034">
       <c r="B1034" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C1034">
@@ -13924,7 +13924,7 @@
     <row r="1036">
       <c r="B1036" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C1036">
@@ -14079,7 +14079,7 @@
         <v>25</v>
       </c>
       <c r="D1047">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="1048">
@@ -14124,7 +14124,7 @@
     <row r="1051">
       <c r="B1051" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C1051">
@@ -14176,7 +14176,7 @@
     <row r="1055">
       <c r="B1055" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C1055">
@@ -14293,7 +14293,7 @@
     <row r="1064">
       <c r="B1064" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C1064">
@@ -14397,7 +14397,7 @@
     <row r="1072">
       <c r="B1072" t="inlineStr">
         <is>
-          <t>Cuapiaxtla de Madero</t>
+          <t>Cuapiaxtla De Madero</t>
         </is>
       </c>
       <c r="C1072">
@@ -14436,7 +14436,7 @@
     <row r="1075">
       <c r="B1075" t="inlineStr">
         <is>
-          <t>Cuayuca de Andrade</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C1075">
@@ -14449,7 +14449,7 @@
     <row r="1076">
       <c r="B1076" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C1076">
@@ -14579,7 +14579,7 @@
     <row r="1086">
       <c r="B1086" t="inlineStr">
         <is>
-          <t>Huehuetlán el Chico</t>
+          <t>Huehuetlán El Chico</t>
         </is>
       </c>
       <c r="C1086">
@@ -14592,7 +14592,7 @@
     <row r="1087">
       <c r="B1087" t="inlineStr">
         <is>
-          <t>Huehuetlán el Grande</t>
+          <t>Huehuetlán El Grande</t>
         </is>
       </c>
       <c r="C1087">
@@ -14644,7 +14644,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C1091">
@@ -14683,7 +14683,7 @@
     <row r="1094">
       <c r="B1094" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C1094">
@@ -14774,7 +14774,7 @@
     <row r="1101">
       <c r="B1101" t="inlineStr">
         <is>
-          <t>Los Reyes de Juárez</t>
+          <t>Los Reyes De Juárez</t>
         </is>
       </c>
       <c r="C1101">
@@ -14865,7 +14865,7 @@
     <row r="1108">
       <c r="B1108" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C1108">
@@ -15086,7 +15086,7 @@
     <row r="1125">
       <c r="B1125" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C1125">
@@ -15203,7 +15203,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Tepanco de López</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C1134">
@@ -15216,7 +15216,7 @@
     <row r="1135">
       <c r="B1135" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C1135">
@@ -15268,7 +15268,7 @@
     <row r="1139">
       <c r="B1139" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C1139">
@@ -15281,7 +15281,7 @@
     <row r="1140">
       <c r="B1140" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C1140">
@@ -15346,7 +15346,7 @@
     <row r="1145">
       <c r="B1145" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C1145">
@@ -15489,7 +15489,7 @@
     <row r="1156">
       <c r="B1156" t="inlineStr">
         <is>
-          <t>Totoltepec de Guerrero</t>
+          <t>Totoltepec De Guerrero</t>
         </is>
       </c>
       <c r="C1156">
@@ -15515,7 +15515,7 @@
     <row r="1158">
       <c r="B1158" t="inlineStr">
         <is>
-          <t>Tuzamapan de Galeana</t>
+          <t>Tuzamapan De Galeana</t>
         </is>
       </c>
       <c r="C1158">
@@ -15619,7 +15619,7 @@
     <row r="1166">
       <c r="B1166" t="inlineStr">
         <is>
-          <t>Xochitlán de Vicente Suárez</t>
+          <t>Xochitlán De Vicente Suárez</t>
         </is>
       </c>
       <c r="C1166">
@@ -15780,7 +15780,7 @@
       </c>
       <c r="B1178" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C1178">
@@ -15806,7 +15806,7 @@
     <row r="1180">
       <c r="B1180" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C1180">
@@ -15884,7 +15884,7 @@
     <row r="1186">
       <c r="B1186" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C1186">
@@ -15897,7 +15897,7 @@
     <row r="1187">
       <c r="B1187" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C1187">
@@ -15936,7 +15936,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C1190">
@@ -15975,7 +15975,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C1193">
@@ -16154,7 +16154,7 @@
     <row r="1206">
       <c r="B1206" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C1206">
@@ -16232,7 +16232,7 @@
     <row r="1212">
       <c r="B1212" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C1212">
@@ -16362,7 +16362,7 @@
     <row r="1222">
       <c r="B1222" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C1222">
@@ -16427,7 +16427,7 @@
     <row r="1227">
       <c r="B1227" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C1227">
@@ -16499,13 +16499,13 @@
         <v>25</v>
       </c>
       <c r="D1232">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="1233">
       <c r="B1233" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C1233">
@@ -16531,7 +16531,7 @@
     <row r="1235">
       <c r="B1235" t="inlineStr">
         <is>
-          <t>Soledad de Graciano Sánchez</t>
+          <t>Soledad De Graciano Sánchez</t>
         </is>
       </c>
       <c r="C1235">
@@ -16609,7 +16609,7 @@
     <row r="1241">
       <c r="B1241" t="inlineStr">
         <is>
-          <t>Tanquián de Escobedo</t>
+          <t>Tanquián De Escobedo</t>
         </is>
       </c>
       <c r="C1241">
@@ -16661,7 +16661,7 @@
     <row r="1245">
       <c r="B1245" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C1245">
@@ -16674,7 +16674,7 @@
     <row r="1246">
       <c r="B1246" t="inlineStr">
         <is>
-          <t>Villa de Arriaga</t>
+          <t>Villa De Arriaga</t>
         </is>
       </c>
       <c r="C1246">
@@ -16687,7 +16687,7 @@
     <row r="1247">
       <c r="B1247" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C1247">
@@ -16700,7 +16700,7 @@
     <row r="1248">
       <c r="B1248" t="inlineStr">
         <is>
-          <t>Villa de la Paz</t>
+          <t>Villa De La Paz</t>
         </is>
       </c>
       <c r="C1248">
@@ -16713,7 +16713,7 @@
     <row r="1249">
       <c r="B1249" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C1249">
@@ -16726,7 +16726,7 @@
     <row r="1250">
       <c r="B1250" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C1250">
@@ -17209,7 +17209,7 @@
     <row r="1286">
       <c r="B1286" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C1286">
@@ -17708,7 +17708,7 @@
     <row r="1324">
       <c r="B1324" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C1324">
@@ -17882,7 +17882,7 @@
     <row r="1337">
       <c r="B1337" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1337">
@@ -17895,7 +17895,7 @@
     <row r="1338">
       <c r="B1338" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1338">
@@ -17921,7 +17921,7 @@
     <row r="1340">
       <c r="B1340" t="inlineStr">
         <is>
-          <t>Papalotla de Xicohténcatl</t>
+          <t>Papalotla De Xicohténcatl</t>
         </is>
       </c>
       <c r="C1340">
@@ -17934,7 +17934,7 @@
     <row r="1341">
       <c r="B1341" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1341">
@@ -17986,7 +17986,7 @@
     <row r="1345">
       <c r="B1345" t="inlineStr">
         <is>
-          <t>Tepetitla de Lardizábal</t>
+          <t>Tepetitla De Lardizábal</t>
         </is>
       </c>
       <c r="C1345">
@@ -18025,7 +18025,7 @@
     <row r="1348">
       <c r="B1348" t="inlineStr">
         <is>
-          <t>Tetla de la Solidaridad</t>
+          <t>Tetla De La Solidaridad</t>
         </is>
       </c>
       <c r="C1348">
@@ -18181,7 +18181,7 @@
     <row r="1360">
       <c r="B1360" t="inlineStr">
         <is>
-          <t>Ziltlaltépec de Trinidad Sánchez Santos</t>
+          <t>Ziltlaltépec De Trinidad Sánchez Santos</t>
         </is>
       </c>
       <c r="C1360">
@@ -18290,7 +18290,7 @@
     <row r="1368">
       <c r="B1368" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1368">
@@ -18342,7 +18342,7 @@
     <row r="1372">
       <c r="B1372" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1372">
@@ -18459,7 +18459,7 @@
     <row r="1381">
       <c r="B1381" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1381">
@@ -18524,7 +18524,7 @@
     <row r="1386">
       <c r="B1386" t="inlineStr">
         <is>
-          <t>Castillo de Teayo</t>
+          <t>Castillo De Teayo</t>
         </is>
       </c>
       <c r="C1386">
@@ -18550,7 +18550,7 @@
     <row r="1388">
       <c r="B1388" t="inlineStr">
         <is>
-          <t>Cazones de Herrera</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C1388">
@@ -18784,7 +18784,7 @@
     <row r="1406">
       <c r="B1406" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1406">
@@ -18797,7 +18797,7 @@
     <row r="1407">
       <c r="B1407" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1407">
@@ -18973,7 +18973,7 @@
         <v>25</v>
       </c>
       <c r="D1420">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="1421">
@@ -19005,7 +19005,7 @@
     <row r="1423">
       <c r="B1423" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1423">
@@ -19018,7 +19018,7 @@
     <row r="1424">
       <c r="B1424" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1424">
@@ -19057,7 +19057,7 @@
     <row r="1427">
       <c r="B1427" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1427">
@@ -19070,7 +19070,7 @@
     <row r="1428">
       <c r="B1428" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1428">
@@ -19083,7 +19083,7 @@
     <row r="1429">
       <c r="B1429" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1429">
@@ -19194,7 +19194,7 @@
         <v>25</v>
       </c>
       <c r="D1437">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="1438">
@@ -19213,7 +19213,7 @@
     <row r="1439">
       <c r="B1439" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1439">
@@ -19278,7 +19278,7 @@
     <row r="1444">
       <c r="B1444" t="inlineStr">
         <is>
-          <t>Las Vigas de Ramírez</t>
+          <t>Las Vigas De Ramírez</t>
         </is>
       </c>
       <c r="C1444">
@@ -19291,7 +19291,7 @@
     <row r="1445">
       <c r="B1445" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1445">
@@ -19330,7 +19330,7 @@
     <row r="1448">
       <c r="B1448" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1448">
@@ -19356,7 +19356,7 @@
     <row r="1450">
       <c r="B1450" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1450">
@@ -19421,7 +19421,7 @@
     <row r="1455">
       <c r="B1455" t="inlineStr">
         <is>
-          <t>Nanchital de Lázaro Cárdenas del Río</t>
+          <t>Nanchital De Lázaro Cárdenas Del Río</t>
         </is>
       </c>
       <c r="C1455">
@@ -19538,7 +19538,7 @@
     <row r="1464">
       <c r="B1464" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1464">
@@ -19577,7 +19577,7 @@
     <row r="1467">
       <c r="B1467" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1467">
@@ -19590,7 +19590,7 @@
     <row r="1468">
       <c r="B1468" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1468">
@@ -19642,7 +19642,7 @@
     <row r="1472">
       <c r="B1472" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1472">
@@ -19746,7 +19746,7 @@
     <row r="1480">
       <c r="B1480" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1480">
@@ -19785,7 +19785,7 @@
     <row r="1483">
       <c r="B1483" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1483">
@@ -19863,7 +19863,7 @@
     <row r="1489">
       <c r="B1489" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1489">
@@ -20110,7 +20110,7 @@
     <row r="1508">
       <c r="B1508" t="inlineStr">
         <is>
-          <t>Tlacotepec de Mejía</t>
+          <t>Tlacotepec De Mejía</t>
         </is>
       </c>
       <c r="C1508">
@@ -20292,7 +20292,7 @@
     <row r="1522">
       <c r="B1522" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1522">
@@ -20396,7 +20396,7 @@
     <row r="1530">
       <c r="B1530" t="inlineStr">
         <is>
-          <t>Zontecomatlán de López y Fuentes</t>
+          <t>Zontecomatlán De López Y Fuentes</t>
         </is>
       </c>
       <c r="C1530">
@@ -20627,7 +20627,7 @@
     <row r="1547">
       <c r="B1547" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1547">
@@ -20653,7 +20653,7 @@
     <row r="1549">
       <c r="B1549" t="inlineStr">
         <is>
-          <t>Concepción del Oro</t>
+          <t>Concepción Del Oro</t>
         </is>
       </c>
       <c r="C1549">
@@ -20725,7 +20725,7 @@
         <v>25</v>
       </c>
       <c r="D1554">
-        <v>0.0009624639076034649</v>
+        <v>0.0009624639076034648</v>
       </c>
     </row>
     <row r="1555">
@@ -20770,7 +20770,7 @@
     <row r="1558">
       <c r="B1558" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1558">
@@ -20848,7 +20848,7 @@
     <row r="1564">
       <c r="B1564" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1564">
@@ -20887,7 +20887,7 @@
     <row r="1567">
       <c r="B1567" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1567">
@@ -20900,7 +20900,7 @@
     <row r="1568">
       <c r="B1568" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1568">
@@ -21030,7 +21030,7 @@
     <row r="1578">
       <c r="B1578" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1578">
@@ -21043,7 +21043,7 @@
     <row r="1579">
       <c r="B1579" t="inlineStr">
         <is>
-          <t>Tlaltenango de Sánchez Román</t>
+          <t>Tlaltenango De Sánchez Román</t>
         </is>
       </c>
       <c r="C1579">
@@ -21056,7 +21056,7 @@
     <row r="1580">
       <c r="B1580" t="inlineStr">
         <is>
-          <t>Trinidad García de la Cadena</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C1580">
@@ -21095,7 +21095,7 @@
     <row r="1583">
       <c r="B1583" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1583">
@@ -21194,41 +21194,6 @@
       </c>
       <c r="D1590">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1592">
-      <c r="A1592" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1593">
-      <c r="A1593" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1594">
-      <c r="A1594" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1595">
-      <c r="A1595" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1596">
-      <c r="A1596" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
